--- a/exceldata/装备属性抽取表.xlsx
+++ b/exceldata/装备属性抽取表.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA7CF67-72CD-4433-BA0D-BAC6F0D95EC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="510" yWindow="4245" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础属性抽取表" sheetId="8" r:id="rId1"/>
     <sheet name="基础属性抽取表2" sheetId="10" r:id="rId2"/>
     <sheet name="职业属性抽取表" sheetId="9" r:id="rId3"/>
-    <sheet name="基础属性抽取表拼完后" sheetId="11" r:id="rId4"/>
+    <sheet name="$输出路径" sheetId="11" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>职业</t>
   </si>
@@ -169,13 +175,71 @@
   </si>
   <si>
     <t>string$name</t>
+  </si>
+  <si>
+    <t>备注信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写输出路径</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写备注</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>txtdata\setting\item\001\magic</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseattrpool</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +294,28 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,8 +352,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -307,6 +397,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -323,7 +426,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -353,19 +456,37 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFill="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="3" applyFill="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="1表头" xfId="4"/>
-    <cellStyle name="2填表文本" xfId="3"/>
-    <cellStyle name="3备注" xfId="2"/>
-    <cellStyle name="4分类标题" xfId="1"/>
+    <cellStyle name="1表头" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="2填表文本" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="3备注" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="4分类标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,11 +764,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -660,7 +781,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -693,7 +814,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -940,7 +1061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -954,7 +1075,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1156,11 +1277,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1225,7 +1346,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1873,430 +1994,102 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="8.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
-        <v>11001</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
-        <v>11001</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
-        <v>11002</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
-        <v>11002</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
-        <v>11002</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6">
-        <v>20</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="6">
-        <v>12001</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
-        <v>12001</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6">
-        <v>30</v>
-      </c>
-      <c r="E10" s="6">
-        <v>50</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
-        <v>12002</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6">
-        <v>60</v>
-      </c>
-      <c r="E11" s="6">
-        <v>100</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
-        <v>12002</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6">
-        <v>110</v>
-      </c>
-      <c r="E12" s="6">
-        <v>150</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
-        <v>12002</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6">
-        <v>160</v>
-      </c>
-      <c r="E13" s="6">
-        <v>200</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="6">
-        <v>13001</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6">
-        <v>500</v>
-      </c>
-      <c r="E14" s="6">
-        <v>600</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="6">
-        <v>13001</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="6">
-        <v>600</v>
-      </c>
-      <c r="E15" s="6">
-        <v>700</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="6">
-        <v>13001</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="6">
-        <v>700</v>
-      </c>
-      <c r="E16" s="6">
-        <v>800</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="6">
-        <v>13002</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1200</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="6">
-        <v>13002</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1500</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="6">
-        <v>13002</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1500</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6">
-        <v>100</v>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/exceldata/装备属性抽取表.xlsx
+++ b/exceldata/装备属性抽取表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA7CF67-72CD-4433-BA0D-BAC6F0D95EC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75604B2-50C9-41B7-8DC6-1377653CC7E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="4245" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="2760" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础属性抽取表" sheetId="8" r:id="rId1"/>
@@ -765,11 +765,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J13"/>
+  <dimension ref="A3:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -780,89 +778,68 @@
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
-        <v>11001</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6">
-        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -873,38 +850,38 @@
         <v>15</v>
       </c>
       <c r="D5" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -915,17 +892,17 @@
         <v>15</v>
       </c>
       <c r="D7" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -936,28 +913,28 @@
         <v>15</v>
       </c>
       <c r="D8" s="6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
-        <v>12001</v>
+        <v>11002</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E9" s="6">
         <v>20</v>
@@ -967,7 +944,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -978,38 +955,38 @@
         <v>15</v>
       </c>
       <c r="D10" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1020,17 +997,17 @@
         <v>15</v>
       </c>
       <c r="D12" s="6">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E12" s="6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1041,16 +1018,37 @@
         <v>15</v>
       </c>
       <c r="D13" s="6">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="E13" s="6">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
+        <v>12002</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6">
+        <v>160</v>
+      </c>
+      <c r="E14" s="6">
+        <v>200</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6">
         <v>200</v>
       </c>
     </row>
@@ -1062,102 +1060,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6">
-        <v>13001</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6">
-        <v>500</v>
-      </c>
-      <c r="E4" s="6">
-        <v>600</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6">
-        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -1169,17 +1143,17 @@
         <v>15</v>
       </c>
       <c r="D5" s="6">
+        <v>500</v>
+      </c>
+      <c r="E5" s="6">
         <v>600</v>
-      </c>
-      <c r="E5" s="6">
-        <v>700</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -1191,39 +1165,39 @@
         <v>15</v>
       </c>
       <c r="D6" s="6">
+        <v>600</v>
+      </c>
+      <c r="E6" s="6">
         <v>700</v>
-      </c>
-      <c r="E6" s="6">
-        <v>800</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="6">
-        <v>13002</v>
+        <v>13001</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="6">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E7" s="6">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -1235,17 +1209,17 @@
         <v>15</v>
       </c>
       <c r="D8" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="6">
         <v>1200</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1500</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6">
-        <v>500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -1257,16 +1231,38 @@
         <v>15</v>
       </c>
       <c r="D9" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="6">
         <v>1500</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2000</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6">
+        <v>13002</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6">
         <v>100</v>
       </c>
     </row>
@@ -1278,263 +1274,220 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A2:Y16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="E1" s="2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G2" s="10">
         <v>2</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H2" s="10">
         <v>2</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I2" s="2">
         <v>3</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J2" s="2">
         <v>3</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L2" s="2">
         <v>1</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M2" s="2">
         <v>1</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N2" s="10">
         <v>2</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O2" s="10">
         <v>2</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P2" s="2">
         <v>3</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q2" s="2">
         <v>3</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S2" s="2">
         <v>1</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T2" s="2">
         <v>1</v>
       </c>
-      <c r="U1" s="10">
+      <c r="U2" s="10">
         <v>2</v>
       </c>
-      <c r="V1" s="10">
+      <c r="V2" s="10">
         <v>2</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W2" s="2">
         <v>3</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="5"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1">
-        <v>10</v>
-      </c>
-      <c r="M4" s="1">
-        <v>50</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
+      <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -1547,10 +1500,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1560,10 +1513,10 @@
         <v>15</v>
       </c>
       <c r="L5" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M5" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1579,19 +1532,19 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1601,10 +1554,10 @@
         <v>15</v>
       </c>
       <c r="L6" s="1">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="M6" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1629,10 +1582,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1642,10 +1595,10 @@
         <v>15</v>
       </c>
       <c r="L7" s="1">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="M7" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1661,19 +1614,19 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1683,10 +1636,10 @@
         <v>15</v>
       </c>
       <c r="L8" s="1">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="M8" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1711,10 +1664,10 @@
         <v>15</v>
       </c>
       <c r="E9" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1724,10 +1677,10 @@
         <v>15</v>
       </c>
       <c r="L9" s="1">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="M9" s="1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1743,19 +1696,19 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>2001</v>
+        <v>1003</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1765,10 +1718,10 @@
         <v>15</v>
       </c>
       <c r="L10" s="1">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="M10" s="1">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1793,10 +1746,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1806,10 +1759,10 @@
         <v>15</v>
       </c>
       <c r="L11" s="1">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="M11" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1828,16 +1781,16 @@
         <v>2001</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1847,10 +1800,10 @@
         <v>15</v>
       </c>
       <c r="L12" s="1">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="M12" s="1">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1875,10 +1828,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="1">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1888,10 +1841,10 @@
         <v>15</v>
       </c>
       <c r="L13" s="1">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="M13" s="1">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1910,16 +1863,16 @@
         <v>2001</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1929,10 +1882,10 @@
         <v>15</v>
       </c>
       <c r="L14" s="1">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="M14" s="1">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1957,10 +1910,10 @@
         <v>15</v>
       </c>
       <c r="E15" s="1">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1970,10 +1923,10 @@
         <v>15</v>
       </c>
       <c r="L15" s="1">
-        <v>560</v>
+        <v>510</v>
       </c>
       <c r="M15" s="1">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1987,6 +1940,47 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>560</v>
+      </c>
+      <c r="M16" s="1">
+        <v>600</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1998,7 +1992,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2024,7 +2018,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>48</v>
       </c>
